--- a/medicine/Enfance/Aurélie_Guillerey/Aurélie_Guillerey.xlsx
+++ b/medicine/Enfance/Aurélie_Guillerey/Aurélie_Guillerey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Guillerey</t>
+          <t>Aurélie_Guillerey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélie Guillerey est une illustratrice française de littérature jeunesse, née en 1975 à Besançon.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Guillerey</t>
+          <t>Aurélie_Guillerey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aurélie Guillerey a vécu dans le quartier de Planoise ; sa mère est pharmacienne et son père fabricant de montres[1]. Après des études secondaires au lycée Pasteur, elle rejoint l’École supérieure des arts décoratifs de Strasbourg dans l'atelier de Claude Lapointe[1] ; elle est diplômée en 1999[2].
-Elle devient ensuite illustratrice d'ouvrages pour la jeunesse et s'installe à Rennes[1]. Elle collabore avec diverses maisons d'édition, sociétés de presse et compagnies théâtrales[1].
-En 2015, elle s'associe avec Nadine Brun-Cosme pour Papa à grand pas[3]. En 2016, sur des textes de Luce Dauthier, elle dessine Mes premiers airs de rock[4].
-En 2019, pour les éditions Milan, elle dessine Des trous dans le vent, sur un texte de Bernard Friot[5].
-En 2020, elle s'associe avec Élisabeth Brami pour livrer Les vieux enfants chez Casterman[6] et, avec Dave Skinner, elle crée À force de crier au lion (éd. Little Urban)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aurélie Guillerey a vécu dans le quartier de Planoise ; sa mère est pharmacienne et son père fabricant de montres. Après des études secondaires au lycée Pasteur, elle rejoint l’École supérieure des arts décoratifs de Strasbourg dans l'atelier de Claude Lapointe ; elle est diplômée en 1999.
+Elle devient ensuite illustratrice d'ouvrages pour la jeunesse et s'installe à Rennes. Elle collabore avec diverses maisons d'édition, sociétés de presse et compagnies théâtrales.
+En 2015, elle s'associe avec Nadine Brun-Cosme pour Papa à grand pas. En 2016, sur des textes de Luce Dauthier, elle dessine Mes premiers airs de rock.
+En 2019, pour les éditions Milan, elle dessine Des trous dans le vent, sur un texte de Bernard Friot.
+En 2020, elle s'associe avec Élisabeth Brami pour livrer Les vieux enfants chez Casterman et, avec Dave Skinner, elle crée À force de crier au lion (éd. Little Urban).
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Guillerey</t>
+          <t>Aurélie_Guillerey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,20 @@
           <t>Œuvres notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Papa à grand pas, textes de Nadine Brun-Cosme, Nathan, 2015
-traduit en anglais : Daddy Long Legs[8],[9], éd. Two Hoots, 2017
+traduit en anglais : Daddy Long Legs éd. Two Hoots, 2017
 Mes premiers airs de rock, textes de Luce Dauthier, éd. Gründ, 2016
-Livre-CD Je découvre la méditation[10], texte de Sophie Raynal, Nathan, 2017
-La Légende de Saint-Nicolas[11], textes de Philippe Lechermeier, Gallimard Jeunesse, 2017
+Livre-CD Je découvre la méditation, texte de Sophie Raynal, Nathan, 2017
+La Légende de Saint-Nicolas, textes de Philippe Lechermeier, Gallimard Jeunesse, 2017
 Des trous dans le vent, texte de Bernard Friot, éd. Milan, 2019
 À force de crier au lion, textes de Dave Skinner, éd. Little Urban, 2020
 Les Vieux Enfants, textes d'Élisabeth Brami, Casterman, 2020
- Albert Talbot Master of Disguise[12],[13], textes de Ben Manley , éd. Two Hoots, 2020
-Le Mystère des graines à bébé[14], de Serge Tisseron, Albin Michel Jeunesse</t>
+ Albert Talbot Master of Disguise textes de Ben Manley , éd. Two Hoots, 2020
+Le Mystère des graines à bébé, de Serge Tisseron, Albin Michel Jeunesse</t>
         </is>
       </c>
     </row>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lie_Guillerey</t>
+          <t>Aurélie_Guillerey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,9 +601,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2021 : Finaliste Prix Landerneau[15], Catégorie Album Jeunesse, pour Les Vieux Enfants qu'elle a illustré, sur un texte de Élisabeth Brami.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2021 : Finaliste Prix Landerneau, Catégorie Album Jeunesse, pour Les Vieux Enfants qu'elle a illustré, sur un texte de Élisabeth Brami.</t>
         </is>
       </c>
     </row>
